--- a/resultados/pretratamiento-tablas-control/pretrat-all-elo-facil.xlsx
+++ b/resultados/pretratamiento-tablas-control/pretrat-all-elo-facil.xlsx
@@ -121,7 +121,7 @@
     <t>43.557 (923)</t>
   </si>
   <si>
-    <t>10.51 (923)</t>
+    <t>10.509 (923)</t>
   </si>
   <si>
     <t>10.775 (923)</t>
@@ -175,7 +175,7 @@
     <t>45.221 (579)</t>
   </si>
   <si>
-    <t>10.174 (579)</t>
+    <t>10.176 (579)</t>
   </si>
   <si>
     <t>9.922 (579)</t>
@@ -1408,7 +1408,7 @@
     <t>43.078 (423)</t>
   </si>
   <si>
-    <t>10.719 (423)</t>
+    <t>10.723 (423)</t>
   </si>
   <si>
     <t>11.277 (423)</t>
@@ -1462,7 +1462,7 @@
     <t>43.94 (749)</t>
   </si>
   <si>
-    <t>10.438 (749)</t>
+    <t>10.434 (749)</t>
   </si>
   <si>
     <t>10.417 (749)</t>
@@ -1516,7 +1516,7 @@
     <t>46.33 (349)</t>
   </si>
   <si>
-    <t>9.828 (349)</t>
+    <t>9.831 (349)</t>
   </si>
   <si>
     <t>9.481 (349)</t>
@@ -1624,7 +1624,7 @@
     <t>42.366 (303)</t>
   </si>
   <si>
-    <t>10.927 (303)</t>
+    <t>10.931 (303)</t>
   </si>
   <si>
     <t>11.485 (303)</t>
@@ -1678,7 +1678,7 @@
     <t>43.367 (719)</t>
   </si>
   <si>
-    <t>10.527 (719)</t>
+    <t>10.524 (719)</t>
   </si>
   <si>
     <t>10.684 (719)</t>
@@ -1732,7 +1732,7 @@
     <t>46.66 (453)</t>
   </si>
   <si>
-    <t>9.859 (453)</t>
+    <t>9.861 (453)</t>
   </si>
   <si>
     <t>9.461 (453)</t>
@@ -1948,7 +1948,7 @@
     <t>43.807 (747)</t>
   </si>
   <si>
-    <t>10.323 (747)</t>
+    <t>10.321 (747)</t>
   </si>
   <si>
     <t>10.375 (747)</t>
@@ -2002,7 +2002,7 @@
     <t>48.942 (207)</t>
   </si>
   <si>
-    <t>9.589 (207)</t>
+    <t>9.594 (207)</t>
   </si>
   <si>
     <t>8.937 (207)</t>
@@ -2413,7 +2413,7 @@
     <t>43.656 (715)</t>
   </si>
   <si>
-    <t>10.322 (715)</t>
+    <t>10.324 (715)</t>
   </si>
   <si>
     <t>10.608 (715)</t>
@@ -2467,7 +2467,7 @@
     <t>45.186 (463)</t>
   </si>
   <si>
-    <t>10.214 (463)</t>
+    <t>10.207 (463)</t>
   </si>
   <si>
     <t>9.73 (463)</t>
@@ -2521,7 +2521,7 @@
     <t>50.716 (109)</t>
   </si>
   <si>
-    <t>9.046 (109)</t>
+    <t>9.055 (109)</t>
   </si>
   <si>
     <t>8.725 (109)</t>
@@ -2896,7 +2896,7 @@
     <t>42.766 (466)</t>
   </si>
   <si>
-    <t>10.468 (466)</t>
+    <t>10.466 (466)</t>
   </si>
   <si>
     <t>10.955 (466)</t>
@@ -2950,7 +2950,7 @@
     <t>44.142 (791)</t>
   </si>
   <si>
-    <t>10.518 (791)</t>
+    <t>10.521 (791)</t>
   </si>
   <si>
     <t>10.477 (791)</t>
@@ -3004,7 +3004,7 @@
     <t>46.905 (296)</t>
   </si>
   <si>
-    <t>9.811 (296)</t>
+    <t>9.804 (296)</t>
   </si>
   <si>
     <t>9.318 (296)</t>
@@ -3058,7 +3058,7 @@
     <t>53.158 (19)</t>
   </si>
   <si>
-    <t>8.421 (19)</t>
+    <t>8.474 (19)</t>
   </si>
   <si>
     <t>9.684 (19)</t>
@@ -3163,7 +3163,7 @@
     <t>43.22 (746)</t>
   </si>
   <si>
-    <t>10.58 (746)</t>
+    <t>10.579 (746)</t>
   </si>
   <si>
     <t>10.61 (746)</t>
@@ -3217,7 +3217,7 @@
     <t>46.427 (454)</t>
   </si>
   <si>
-    <t>10.055 (454)</t>
+    <t>10.057 (454)</t>
   </si>
   <si>
     <t>9.791 (454)</t>
@@ -3373,7 +3373,7 @@
     <t>42.883 (162)</t>
   </si>
   <si>
-    <t>10.926 (162)</t>
+    <t>10.92 (162)</t>
   </si>
   <si>
     <t>11.84 (162)</t>
@@ -3427,7 +3427,7 @@
     <t>43.301 (644)</t>
   </si>
   <si>
-    <t>10.429 (644)</t>
+    <t>10.433 (644)</t>
   </si>
   <si>
     <t>10.803 (644)</t>
@@ -3481,7 +3481,7 @@
     <t>44.58 (557)</t>
   </si>
   <si>
-    <t>10.425 (557)</t>
+    <t>10.42 (557)</t>
   </si>
   <si>
     <t>9.939 (557)</t>
@@ -3589,7 +3589,7 @@
     <t>56.4 (15)</t>
   </si>
   <si>
-    <t>9.067 (15)</t>
+    <t>9.133 (15)</t>
   </si>
   <si>
     <t>7.933 (15)</t>
@@ -3643,7 +3643,7 @@
     <t>41.773 (97)</t>
   </si>
   <si>
-    <t>11.206 (97)</t>
+    <t>11.196 (97)</t>
   </si>
   <si>
     <t>12.32 (97)</t>
@@ -3697,7 +3697,7 @@
     <t>42.937 (489)</t>
   </si>
   <si>
-    <t>10.742 (489)</t>
+    <t>10.744 (489)</t>
   </si>
   <si>
     <t>11.051 (489)</t>
@@ -3805,7 +3805,7 @@
     <t>45.925 (308)</t>
   </si>
   <si>
-    <t>10.0 (308)</t>
+    <t>9.997 (308)</t>
   </si>
   <si>
     <t>9.685 (308)</t>
@@ -3859,7 +3859,7 @@
     <t>52.111 (54)</t>
   </si>
   <si>
-    <t>8.407 (54)</t>
+    <t>8.426 (54)</t>
   </si>
   <si>
     <t>7.981 (54)</t>
@@ -4365,10 +4365,10 @@
         <v>0.262</v>
       </c>
       <c r="I2">
-        <v>0.18</v>
+        <v>0.164</v>
       </c>
       <c r="J2">
-        <v>0.857</v>
+        <v>0.87</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -4397,10 +4397,10 @@
         <v>2.891</v>
       </c>
       <c r="I3">
-        <v>1.975</v>
+        <v>1.884</v>
       </c>
       <c r="J3">
-        <v>0.048</v>
+        <v>0.059</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -4429,10 +4429,10 @@
         <v>2.303</v>
       </c>
       <c r="I4">
-        <v>1.287</v>
+        <v>1.318</v>
       </c>
       <c r="J4">
-        <v>0.198</v>
+        <v>0.187</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -4461,10 +4461,10 @@
         <v>1.087</v>
       </c>
       <c r="I5">
-        <v>0.604</v>
+        <v>0.594</v>
       </c>
       <c r="J5">
-        <v>0.546</v>
+        <v>0.553</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -4493,10 +4493,10 @@
         <v>1.942</v>
       </c>
       <c r="I6">
-        <v>1.069</v>
+        <v>1.086</v>
       </c>
       <c r="J6">
-        <v>0.285</v>
+        <v>0.278</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -4525,10 +4525,10 @@
         <v>1.315</v>
       </c>
       <c r="I7">
-        <v>0.727</v>
+        <v>0.738</v>
       </c>
       <c r="J7">
-        <v>0.467</v>
+        <v>0.46</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -4554,13 +4554,13 @@
         <v>0.038</v>
       </c>
       <c r="H8">
-        <v>0.07099999999999999</v>
+        <v>0.079</v>
       </c>
       <c r="I8">
-        <v>0.123</v>
+        <v>0.127</v>
       </c>
       <c r="J8">
-        <v>0.902</v>
+        <v>0.899</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -4589,10 +4589,10 @@
         <v>-1.253</v>
       </c>
       <c r="I9">
-        <v>-2.101</v>
+        <v>-2.315</v>
       </c>
       <c r="J9">
-        <v>0.036</v>
+        <v>0.021</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -4621,10 +4621,10 @@
         <v>-1.138</v>
       </c>
       <c r="I10">
-        <v>-1.682</v>
+        <v>-1.798</v>
       </c>
       <c r="J10">
-        <v>0.093</v>
+        <v>0.07199999999999999</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -4653,10 +4653,10 @@
         <v>-0.5620000000000001</v>
       </c>
       <c r="I11">
-        <v>-0.829</v>
+        <v>-0.797</v>
       </c>
       <c r="J11">
-        <v>0.407</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -4685,10 +4685,10 @@
         <v>-0.496</v>
       </c>
       <c r="I12">
-        <v>-0.722</v>
+        <v>-0.742</v>
       </c>
       <c r="J12">
-        <v>0.47</v>
+        <v>0.458</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -4717,10 +4717,10 @@
         <v>-0.521</v>
       </c>
       <c r="I13">
-        <v>-0.77</v>
+        <v>-0.76</v>
       </c>
       <c r="J13">
-        <v>0.441</v>
+        <v>0.447</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -4749,10 +4749,10 @@
         <v>-0.01</v>
       </c>
       <c r="I14">
-        <v>-0.925</v>
+        <v>-0.822</v>
       </c>
       <c r="J14">
-        <v>0.355</v>
+        <v>0.411</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -4781,10 +4781,10 @@
         <v>0.011</v>
       </c>
       <c r="I15">
-        <v>0.9330000000000001</v>
+        <v>0.8090000000000001</v>
       </c>
       <c r="J15">
-        <v>0.351</v>
+        <v>0.418</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -4813,10 +4813,10 @@
         <v>0.012</v>
       </c>
       <c r="I16">
-        <v>0.897</v>
+        <v>0.905</v>
       </c>
       <c r="J16">
-        <v>0.37</v>
+        <v>0.365</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -4845,10 +4845,10 @@
         <v>0.015</v>
       </c>
       <c r="I17">
-        <v>1.123</v>
+        <v>1.089</v>
       </c>
       <c r="J17">
-        <v>0.262</v>
+        <v>0.276</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -4877,10 +4877,10 @@
         <v>0.019</v>
       </c>
       <c r="I18">
-        <v>1.383</v>
+        <v>1.326</v>
       </c>
       <c r="J18">
-        <v>0.167</v>
+        <v>0.185</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -4909,10 +4909,10 @@
         <v>0.002</v>
       </c>
       <c r="I19">
-        <v>0.157</v>
+        <v>0.13</v>
       </c>
       <c r="J19">
-        <v>0.875</v>
+        <v>0.897</v>
       </c>
     </row>
   </sheetData>
@@ -5005,10 +5005,10 @@
         <v>-1.617</v>
       </c>
       <c r="J2">
-        <v>-1.107</v>
+        <v>-0.992</v>
       </c>
       <c r="K2">
-        <v>0.268</v>
+        <v>0.321</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -5040,10 +5040,10 @@
         <v>1.436</v>
       </c>
       <c r="J3">
-        <v>0.976</v>
+        <v>1.009</v>
       </c>
       <c r="K3">
-        <v>0.329</v>
+        <v>0.313</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -5075,10 +5075,10 @@
         <v>1.778</v>
       </c>
       <c r="J4">
-        <v>0.989</v>
+        <v>1.074</v>
       </c>
       <c r="K4">
-        <v>0.323</v>
+        <v>0.283</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -5110,7 +5110,7 @@
         <v>0.167</v>
       </c>
       <c r="J5">
-        <v>0.092</v>
+        <v>0.093</v>
       </c>
       <c r="K5">
         <v>0.926</v>
@@ -5145,10 +5145,10 @@
         <v>1.075</v>
       </c>
       <c r="J6">
-        <v>0.589</v>
+        <v>0.62</v>
       </c>
       <c r="K6">
-        <v>0.556</v>
+        <v>0.535</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -5180,10 +5180,10 @@
         <v>1.284</v>
       </c>
       <c r="J7">
-        <v>0.707</v>
+        <v>0.667</v>
       </c>
       <c r="K7">
-        <v>0.48</v>
+        <v>0.505</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -5212,13 +5212,13 @@
         <v>0.038</v>
       </c>
       <c r="I8">
-        <v>0.601</v>
+        <v>0.6</v>
       </c>
       <c r="J8">
-        <v>1.044</v>
+        <v>0.9340000000000001</v>
       </c>
       <c r="K8">
-        <v>0.297</v>
+        <v>0.351</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -5250,10 +5250,10 @@
         <v>-0.6850000000000001</v>
       </c>
       <c r="J9">
-        <v>-1.143</v>
+        <v>-1.18</v>
       </c>
       <c r="K9">
-        <v>0.253</v>
+        <v>0.238</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -5285,10 +5285,10 @@
         <v>-0.8169999999999999</v>
       </c>
       <c r="J10">
-        <v>-1.202</v>
+        <v>-1.233</v>
       </c>
       <c r="K10">
-        <v>0.23</v>
+        <v>0.217</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -5320,10 +5320,10 @@
         <v>-0.453</v>
       </c>
       <c r="J11">
-        <v>-0.666</v>
+        <v>-0.679</v>
       </c>
       <c r="K11">
-        <v>0.506</v>
+        <v>0.497</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -5355,10 +5355,10 @@
         <v>-0.182</v>
       </c>
       <c r="J12">
-        <v>-0.263</v>
+        <v>-0.27</v>
       </c>
       <c r="K12">
-        <v>0.792</v>
+        <v>0.787</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -5390,10 +5390,10 @@
         <v>-0.35</v>
       </c>
       <c r="J13">
-        <v>-0.516</v>
+        <v>-0.5</v>
       </c>
       <c r="K13">
-        <v>0.606</v>
+        <v>0.617</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -5425,10 +5425,10 @@
         <v>-0.004</v>
       </c>
       <c r="J14">
-        <v>-0.385</v>
+        <v>-0.397</v>
       </c>
       <c r="K14">
-        <v>0.7</v>
+        <v>0.6919999999999999</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -5460,10 +5460,10 @@
         <v>0.008</v>
       </c>
       <c r="J15">
-        <v>0.661</v>
+        <v>0.601</v>
       </c>
       <c r="K15">
-        <v>0.509</v>
+        <v>0.548</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -5495,10 +5495,10 @@
         <v>-0.004</v>
       </c>
       <c r="J16">
-        <v>-0.309</v>
+        <v>-0.298</v>
       </c>
       <c r="K16">
-        <v>0.757</v>
+        <v>0.766</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -5530,10 +5530,10 @@
         <v>0.029</v>
       </c>
       <c r="J17">
-        <v>2.122</v>
+        <v>1.792</v>
       </c>
       <c r="K17">
-        <v>0.034</v>
+        <v>0.073</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -5565,10 +5565,10 @@
         <v>0.028</v>
       </c>
       <c r="J18">
-        <v>2.016</v>
+        <v>1.998</v>
       </c>
       <c r="K18">
-        <v>0.044</v>
+        <v>0.046</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -5600,10 +5600,10 @@
         <v>0.023</v>
       </c>
       <c r="J19">
-        <v>1.613</v>
+        <v>1.416</v>
       </c>
       <c r="K19">
-        <v>0.107</v>
+        <v>0.157</v>
       </c>
     </row>
   </sheetData>
@@ -5696,10 +5696,10 @@
         <v>-0.268</v>
       </c>
       <c r="J2">
-        <v>-0.16</v>
+        <v>-0.139</v>
       </c>
       <c r="K2">
-        <v>0.873</v>
+        <v>0.889</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -5731,7 +5731,7 @@
         <v>4.074</v>
       </c>
       <c r="J3">
-        <v>2.421</v>
+        <v>2.417</v>
       </c>
       <c r="K3">
         <v>0.016</v>
@@ -5766,10 +5766,10 @@
         <v>4.476</v>
       </c>
       <c r="J4">
-        <v>2.176</v>
+        <v>2.415</v>
       </c>
       <c r="K4">
-        <v>0.03</v>
+        <v>0.016</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -5801,10 +5801,10 @@
         <v>2.074</v>
       </c>
       <c r="J5">
-        <v>1.003</v>
+        <v>1.119</v>
       </c>
       <c r="K5">
-        <v>0.316</v>
+        <v>0.263</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -5836,10 +5836,10 @@
         <v>0.367</v>
       </c>
       <c r="J6">
-        <v>0.176</v>
+        <v>0.186</v>
       </c>
       <c r="K6">
-        <v>0.861</v>
+        <v>0.852</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -5871,10 +5871,10 @@
         <v>0.996</v>
       </c>
       <c r="J7">
-        <v>0.478</v>
+        <v>0.424</v>
       </c>
       <c r="K7">
-        <v>0.632</v>
+        <v>0.671</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -5903,13 +5903,13 @@
         <v>0.029</v>
       </c>
       <c r="I8">
-        <v>0.323</v>
+        <v>0.318</v>
       </c>
       <c r="J8">
-        <v>0.489</v>
+        <v>0.436</v>
       </c>
       <c r="K8">
-        <v>0.625</v>
+        <v>0.663</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -5941,10 +5941,10 @@
         <v>-1.879</v>
       </c>
       <c r="J9">
-        <v>-2.741</v>
+        <v>-2.721</v>
       </c>
       <c r="K9">
-        <v>0.006</v>
+        <v>0.007</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -5976,10 +5976,10 @@
         <v>-1.993</v>
       </c>
       <c r="J10">
-        <v>-2.563</v>
+        <v>-2.747</v>
       </c>
       <c r="K10">
-        <v>0.01</v>
+        <v>0.006</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -6011,10 +6011,10 @@
         <v>-0.9399999999999999</v>
       </c>
       <c r="J11">
-        <v>-1.206</v>
+        <v>-1.394</v>
       </c>
       <c r="K11">
-        <v>0.228</v>
+        <v>0.163</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -6081,10 +6081,10 @@
         <v>-0.116</v>
       </c>
       <c r="J13">
-        <v>-0.149</v>
+        <v>-0.133</v>
       </c>
       <c r="K13">
-        <v>0.881</v>
+        <v>0.894</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -6116,10 +6116,10 @@
         <v>-0.004</v>
       </c>
       <c r="J14">
-        <v>-0.303</v>
+        <v>-0.301</v>
       </c>
       <c r="K14">
-        <v>0.762</v>
+        <v>0.763</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -6151,10 +6151,10 @@
         <v>0.006</v>
       </c>
       <c r="J15">
-        <v>0.48</v>
+        <v>0.49</v>
       </c>
       <c r="K15">
-        <v>0.631</v>
+        <v>0.624</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -6186,10 +6186,10 @@
         <v>-0.001</v>
       </c>
       <c r="J16">
-        <v>-0.057</v>
+        <v>-0.058</v>
       </c>
       <c r="K16">
-        <v>0.955</v>
+        <v>0.954</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -6221,10 +6221,10 @@
         <v>0.03</v>
       </c>
       <c r="J17">
-        <v>1.944</v>
+        <v>1.822</v>
       </c>
       <c r="K17">
-        <v>0.052</v>
+        <v>0.068</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -6256,10 +6256,10 @@
         <v>0.023</v>
       </c>
       <c r="J18">
-        <v>1.426</v>
+        <v>1.587</v>
       </c>
       <c r="K18">
-        <v>0.154</v>
+        <v>0.113</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -6291,10 +6291,10 @@
         <v>0.017</v>
       </c>
       <c r="J19">
-        <v>1.038</v>
+        <v>1.076</v>
       </c>
       <c r="K19">
-        <v>0.299</v>
+        <v>0.282</v>
       </c>
     </row>
   </sheetData>
@@ -6387,10 +6387,10 @@
         <v>0.503</v>
       </c>
       <c r="J2">
-        <v>0.261</v>
+        <v>0.227</v>
       </c>
       <c r="K2">
-        <v>0.794</v>
+        <v>0.82</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -6422,7 +6422,7 @@
         <v>5.128</v>
       </c>
       <c r="J3">
-        <v>2.653</v>
+        <v>2.651</v>
       </c>
       <c r="K3">
         <v>0.008</v>
@@ -6457,10 +6457,10 @@
         <v>6.159</v>
       </c>
       <c r="J4">
-        <v>2.607</v>
+        <v>3.08</v>
       </c>
       <c r="K4">
-        <v>0.008999999999999999</v>
+        <v>0.002</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -6492,10 +6492,10 @@
         <v>2.897</v>
       </c>
       <c r="J5">
-        <v>1.218</v>
+        <v>1.266</v>
       </c>
       <c r="K5">
-        <v>0.223</v>
+        <v>0.205</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -6527,10 +6527,10 @@
         <v>0.223</v>
       </c>
       <c r="J6">
-        <v>0.093</v>
+        <v>0.092</v>
       </c>
       <c r="K6">
-        <v>0.926</v>
+        <v>0.927</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -6562,10 +6562,10 @@
         <v>1.461</v>
       </c>
       <c r="J7">
-        <v>0.611</v>
+        <v>0.53</v>
       </c>
       <c r="K7">
-        <v>0.542</v>
+        <v>0.596</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -6594,13 +6594,13 @@
         <v>0.022</v>
       </c>
       <c r="I8">
-        <v>0.083</v>
+        <v>0.08799999999999999</v>
       </c>
       <c r="J8">
-        <v>0.109</v>
+        <v>0.102</v>
       </c>
       <c r="K8">
-        <v>0.913</v>
+        <v>0.919</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -6632,7 +6632,7 @@
         <v>-2.432</v>
       </c>
       <c r="J9">
-        <v>-3.089</v>
+        <v>-3.17</v>
       </c>
       <c r="K9">
         <v>0.002</v>
@@ -6667,10 +6667,10 @@
         <v>-2.774</v>
       </c>
       <c r="J10">
-        <v>-3.107</v>
+        <v>-3.467</v>
       </c>
       <c r="K10">
-        <v>0.002</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -6702,10 +6702,10 @@
         <v>-1.28</v>
       </c>
       <c r="J11">
-        <v>-1.429</v>
+        <v>-1.519</v>
       </c>
       <c r="K11">
-        <v>0.153</v>
+        <v>0.129</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -6737,10 +6737,10 @@
         <v>-0.078</v>
       </c>
       <c r="J12">
-        <v>-0.08599999999999999</v>
+        <v>-0.079</v>
       </c>
       <c r="K12">
-        <v>0.931</v>
+        <v>0.9370000000000001</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -6772,10 +6772,10 @@
         <v>-0.28</v>
       </c>
       <c r="J13">
-        <v>-0.312</v>
+        <v>-0.27</v>
       </c>
       <c r="K13">
-        <v>0.755</v>
+        <v>0.787</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -6807,10 +6807,10 @@
         <v>-0.008999999999999999</v>
       </c>
       <c r="J14">
-        <v>-0.595</v>
+        <v>-0.606</v>
       </c>
       <c r="K14">
-        <v>0.552</v>
+        <v>0.545</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -6842,10 +6842,10 @@
         <v>0.018</v>
       </c>
       <c r="J15">
-        <v>1.175</v>
+        <v>1.185</v>
       </c>
       <c r="K15">
-        <v>0.24</v>
+        <v>0.236</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -6877,10 +6877,10 @@
         <v>0.008</v>
       </c>
       <c r="J16">
-        <v>0.452</v>
+        <v>0.476</v>
       </c>
       <c r="K16">
-        <v>0.652</v>
+        <v>0.634</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -6912,10 +6912,10 @@
         <v>0.032</v>
       </c>
       <c r="J17">
-        <v>1.764</v>
+        <v>1.608</v>
       </c>
       <c r="K17">
-        <v>0.078</v>
+        <v>0.108</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -6947,10 +6947,10 @@
         <v>0.031</v>
       </c>
       <c r="J18">
-        <v>1.678</v>
+        <v>1.736</v>
       </c>
       <c r="K18">
-        <v>0.094</v>
+        <v>0.083</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -6982,10 +6982,10 @@
         <v>0.006</v>
       </c>
       <c r="J19">
-        <v>0.332</v>
+        <v>0.408</v>
       </c>
       <c r="K19">
-        <v>0.74</v>
+        <v>0.6830000000000001</v>
       </c>
     </row>
   </sheetData>
@@ -7071,10 +7071,10 @@
         <v>-1.519</v>
       </c>
       <c r="I2">
-        <v>-1.297</v>
+        <v>-1.152</v>
       </c>
       <c r="J2">
-        <v>0.195</v>
+        <v>0.249</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -7103,10 +7103,10 @@
         <v>0.804</v>
       </c>
       <c r="I3">
-        <v>0.681</v>
+        <v>0.652</v>
       </c>
       <c r="J3">
-        <v>0.496</v>
+        <v>0.514</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -7135,10 +7135,10 @@
         <v>0.523</v>
       </c>
       <c r="I4">
-        <v>0.362</v>
+        <v>0.338</v>
       </c>
       <c r="J4">
-        <v>0.717</v>
+        <v>0.735</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -7167,10 +7167,10 @@
         <v>1.224</v>
       </c>
       <c r="I5">
-        <v>0.845</v>
+        <v>0.788</v>
       </c>
       <c r="J5">
-        <v>0.398</v>
+        <v>0.43</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -7199,10 +7199,10 @@
         <v>2.221</v>
       </c>
       <c r="I6">
-        <v>1.518</v>
+        <v>1.392</v>
       </c>
       <c r="J6">
-        <v>0.129</v>
+        <v>0.164</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -7231,10 +7231,10 @@
         <v>2.463</v>
       </c>
       <c r="I7">
-        <v>1.692</v>
+        <v>1.498</v>
       </c>
       <c r="J7">
-        <v>0.091</v>
+        <v>0.134</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -7260,13 +7260,13 @@
         <v>0.059</v>
       </c>
       <c r="H8">
-        <v>0.903</v>
+        <v>0.909</v>
       </c>
       <c r="I8">
-        <v>1.957</v>
+        <v>1.757</v>
       </c>
       <c r="J8">
-        <v>0.051</v>
+        <v>0.079</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -7295,10 +7295,10 @@
         <v>-0.599</v>
       </c>
       <c r="I9">
-        <v>-1.244</v>
+        <v>-1.25</v>
       </c>
       <c r="J9">
-        <v>0.214</v>
+        <v>0.211</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -7327,10 +7327,10 @@
         <v>-0.31</v>
       </c>
       <c r="I10">
-        <v>-0.5679999999999999</v>
+        <v>-0.55</v>
       </c>
       <c r="J10">
-        <v>0.57</v>
+        <v>0.582</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -7359,10 +7359,10 @@
         <v>-0.626</v>
       </c>
       <c r="I11">
-        <v>-1.147</v>
+        <v>-1.112</v>
       </c>
       <c r="J11">
-        <v>0.251</v>
+        <v>0.266</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -7391,10 +7391,10 @@
         <v>-0.82</v>
       </c>
       <c r="I12">
-        <v>-1.483</v>
+        <v>-1.346</v>
       </c>
       <c r="J12">
-        <v>0.138</v>
+        <v>0.178</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -7423,10 +7423,10 @@
         <v>-0.8179999999999999</v>
       </c>
       <c r="I13">
-        <v>-1.503</v>
+        <v>-1.333</v>
       </c>
       <c r="J13">
-        <v>0.133</v>
+        <v>0.183</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -7455,10 +7455,10 @@
         <v>-0.004</v>
       </c>
       <c r="I14">
-        <v>-0.501</v>
+        <v>-0.486</v>
       </c>
       <c r="J14">
-        <v>0.617</v>
+        <v>0.627</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -7487,10 +7487,10 @@
         <v>0.006</v>
       </c>
       <c r="I15">
-        <v>0.634</v>
+        <v>0.57</v>
       </c>
       <c r="J15">
-        <v>0.526</v>
+        <v>0.569</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -7551,10 +7551,10 @@
         <v>0.015</v>
       </c>
       <c r="I17">
-        <v>1.332</v>
+        <v>1.236</v>
       </c>
       <c r="J17">
-        <v>0.183</v>
+        <v>0.216</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -7583,10 +7583,10 @@
         <v>0.026</v>
       </c>
       <c r="I18">
-        <v>2.349</v>
+        <v>2.245</v>
       </c>
       <c r="J18">
-        <v>0.019</v>
+        <v>0.025</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -7615,10 +7615,10 @@
         <v>0.018</v>
       </c>
       <c r="I19">
-        <v>1.58</v>
+        <v>1.474</v>
       </c>
       <c r="J19">
-        <v>0.114</v>
+        <v>0.14</v>
       </c>
     </row>
   </sheetData>
@@ -7711,10 +7711,10 @@
         <v>-1.62</v>
       </c>
       <c r="J2">
-        <v>-1.151</v>
+        <v>-1.011</v>
       </c>
       <c r="K2">
-        <v>0.25</v>
+        <v>0.312</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -7746,10 +7746,10 @@
         <v>1.52</v>
       </c>
       <c r="J3">
-        <v>1.073</v>
+        <v>1.035</v>
       </c>
       <c r="K3">
-        <v>0.283</v>
+        <v>0.301</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -7781,10 +7781,10 @@
         <v>2.349</v>
       </c>
       <c r="J4">
-        <v>1.357</v>
+        <v>1.336</v>
       </c>
       <c r="K4">
-        <v>0.175</v>
+        <v>0.182</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -7816,10 +7816,10 @@
         <v>0.915</v>
       </c>
       <c r="J5">
-        <v>0.526</v>
+        <v>0.506</v>
       </c>
       <c r="K5">
-        <v>0.599</v>
+        <v>0.613</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -7851,7 +7851,7 @@
         <v>2.097</v>
       </c>
       <c r="J6">
-        <v>1.193</v>
+        <v>1.194</v>
       </c>
       <c r="K6">
         <v>0.233</v>
@@ -7886,10 +7886,10 @@
         <v>3.387</v>
       </c>
       <c r="J7">
-        <v>1.938</v>
+        <v>1.822</v>
       </c>
       <c r="K7">
-        <v>0.053</v>
+        <v>0.06900000000000001</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -7918,13 +7918,13 @@
         <v>0.041</v>
       </c>
       <c r="I8">
-        <v>0.848</v>
+        <v>0.852</v>
       </c>
       <c r="J8">
-        <v>1.53</v>
+        <v>1.449</v>
       </c>
       <c r="K8">
-        <v>0.126</v>
+        <v>0.147</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -7956,10 +7956,10 @@
         <v>-0.743</v>
       </c>
       <c r="J9">
-        <v>-1.287</v>
+        <v>-1.282</v>
       </c>
       <c r="K9">
-        <v>0.198</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -7991,10 +7991,10 @@
         <v>-0.765</v>
       </c>
       <c r="J10">
-        <v>-1.169</v>
+        <v>-1.131</v>
       </c>
       <c r="K10">
-        <v>0.243</v>
+        <v>0.258</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -8026,10 +8026,10 @@
         <v>-0.6870000000000001</v>
       </c>
       <c r="J11">
-        <v>-1.049</v>
+        <v>-1.025</v>
       </c>
       <c r="K11">
-        <v>0.294</v>
+        <v>0.305</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -8061,10 +8061,10 @@
         <v>-0.778</v>
       </c>
       <c r="J12">
-        <v>-1.171</v>
+        <v>-1.174</v>
       </c>
       <c r="K12">
-        <v>0.242</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -8096,10 +8096,10 @@
         <v>-1.252</v>
       </c>
       <c r="J13">
-        <v>-1.916</v>
+        <v>-1.889</v>
       </c>
       <c r="K13">
-        <v>0.056</v>
+        <v>0.059</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -8131,10 +8131,10 @@
         <v>-0.005</v>
       </c>
       <c r="J14">
-        <v>-0.479</v>
+        <v>-0.494</v>
       </c>
       <c r="K14">
-        <v>0.632</v>
+        <v>0.621</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -8166,10 +8166,10 @@
         <v>0.001</v>
       </c>
       <c r="J15">
-        <v>0.059</v>
+        <v>0.051</v>
       </c>
       <c r="K15">
-        <v>0.953</v>
+        <v>0.96</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -8201,10 +8201,10 @@
         <v>-0.007</v>
       </c>
       <c r="J16">
-        <v>-0.5570000000000001</v>
+        <v>-0.551</v>
       </c>
       <c r="K16">
-        <v>0.578</v>
+        <v>0.582</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -8236,10 +8236,10 @@
         <v>0.032</v>
       </c>
       <c r="J17">
-        <v>2.468</v>
+        <v>2.156</v>
       </c>
       <c r="K17">
-        <v>0.014</v>
+        <v>0.031</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -8271,10 +8271,10 @@
         <v>0.03</v>
       </c>
       <c r="J18">
-        <v>2.214</v>
+        <v>2.229</v>
       </c>
       <c r="K18">
-        <v>0.027</v>
+        <v>0.026</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -8306,10 +8306,10 @@
         <v>0.023</v>
       </c>
       <c r="J19">
-        <v>1.661</v>
+        <v>1.488</v>
       </c>
       <c r="K19">
-        <v>0.097</v>
+        <v>0.137</v>
       </c>
     </row>
   </sheetData>
@@ -8402,10 +8402,10 @@
         <v>-0.246</v>
       </c>
       <c r="J2">
-        <v>-0.152</v>
+        <v>-0.133</v>
       </c>
       <c r="K2">
-        <v>0.879</v>
+        <v>0.895</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -8437,10 +8437,10 @@
         <v>4.643</v>
       </c>
       <c r="J3">
-        <v>2.861</v>
+        <v>2.813</v>
       </c>
       <c r="K3">
-        <v>0.004</v>
+        <v>0.005</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -8472,10 +8472,10 @@
         <v>4.73</v>
       </c>
       <c r="J4">
-        <v>2.383</v>
+        <v>2.428</v>
       </c>
       <c r="K4">
-        <v>0.017</v>
+        <v>0.015</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -8542,10 +8542,10 @@
         <v>1.12</v>
       </c>
       <c r="J6">
-        <v>0.555</v>
+        <v>0.5610000000000001</v>
       </c>
       <c r="K6">
-        <v>0.579</v>
+        <v>0.575</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -8577,10 +8577,10 @@
         <v>2.827</v>
       </c>
       <c r="J7">
-        <v>1.408</v>
+        <v>1.283</v>
       </c>
       <c r="K7">
-        <v>0.159</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -8609,13 +8609,13 @@
         <v>0.03</v>
       </c>
       <c r="I8">
-        <v>0.695</v>
+        <v>0.7</v>
       </c>
       <c r="J8">
-        <v>1.091</v>
+        <v>1.017</v>
       </c>
       <c r="K8">
-        <v>0.276</v>
+        <v>0.309</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -8647,7 +8647,7 @@
         <v>-2.172</v>
       </c>
       <c r="J9">
-        <v>-3.287</v>
+        <v>-3.222</v>
       </c>
       <c r="K9">
         <v>0.001</v>
@@ -8682,10 +8682,10 @@
         <v>-1.779</v>
       </c>
       <c r="J10">
-        <v>-2.369</v>
+        <v>-2.403</v>
       </c>
       <c r="K10">
-        <v>0.018</v>
+        <v>0.016</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -8717,10 +8717,10 @@
         <v>-1.157</v>
       </c>
       <c r="J11">
-        <v>-1.539</v>
+        <v>-1.574</v>
       </c>
       <c r="K11">
-        <v>0.124</v>
+        <v>0.115</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -8752,10 +8752,10 @@
         <v>-0.541</v>
       </c>
       <c r="J12">
-        <v>-0.709</v>
+        <v>-0.647</v>
       </c>
       <c r="K12">
-        <v>0.478</v>
+        <v>0.518</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -8787,10 +8787,10 @@
         <v>-0.9429999999999999</v>
       </c>
       <c r="J13">
-        <v>-1.256</v>
+        <v>-1.151</v>
       </c>
       <c r="K13">
-        <v>0.209</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -8822,10 +8822,10 @@
         <v>-0.001</v>
       </c>
       <c r="J14">
-        <v>-0.053</v>
+        <v>-0.056</v>
       </c>
       <c r="K14">
-        <v>0.957</v>
+        <v>0.955</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -8857,10 +8857,10 @@
         <v>0.006</v>
       </c>
       <c r="J15">
-        <v>0.5</v>
+        <v>0.493</v>
       </c>
       <c r="K15">
-        <v>0.617</v>
+        <v>0.622</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -8927,10 +8927,10 @@
         <v>0.033</v>
       </c>
       <c r="J17">
-        <v>2.2</v>
+        <v>2.09</v>
       </c>
       <c r="K17">
-        <v>0.028</v>
+        <v>0.037</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -8962,10 +8962,10 @@
         <v>0.025</v>
       </c>
       <c r="J18">
-        <v>1.632</v>
+        <v>1.792</v>
       </c>
       <c r="K18">
-        <v>0.103</v>
+        <v>0.073</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -8997,10 +8997,10 @@
         <v>0.012</v>
       </c>
       <c r="J19">
-        <v>0.767</v>
+        <v>0.774</v>
       </c>
       <c r="K19">
-        <v>0.443</v>
+        <v>0.439</v>
       </c>
     </row>
   </sheetData>
@@ -9100,10 +9100,10 @@
         <v>0.944</v>
       </c>
       <c r="K2">
-        <v>0.516</v>
+        <v>0.451</v>
       </c>
       <c r="L2">
-        <v>0.606</v>
+        <v>0.652</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -9138,10 +9138,10 @@
         <v>5.759</v>
       </c>
       <c r="K3">
-        <v>3.137</v>
+        <v>3.206</v>
       </c>
       <c r="L3">
-        <v>0.002</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -9176,10 +9176,10 @@
         <v>5.54</v>
       </c>
       <c r="K4">
-        <v>2.466</v>
+        <v>2.729</v>
       </c>
       <c r="L4">
-        <v>0.014</v>
+        <v>0.006</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -9214,10 +9214,10 @@
         <v>3.725</v>
       </c>
       <c r="K5">
-        <v>1.649</v>
+        <v>1.557</v>
       </c>
       <c r="L5">
-        <v>0.099</v>
+        <v>0.119</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -9252,10 +9252,10 @@
         <v>1.535</v>
       </c>
       <c r="K6">
-        <v>0.672</v>
+        <v>0.67</v>
       </c>
       <c r="L6">
-        <v>0.502</v>
+        <v>0.503</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -9290,10 +9290,10 @@
         <v>3.03</v>
       </c>
       <c r="K7">
-        <v>1.333</v>
+        <v>1.176</v>
       </c>
       <c r="L7">
-        <v>0.183</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -9325,7 +9325,7 @@
         <v>0.024</v>
       </c>
       <c r="J8">
-        <v>0.171</v>
+        <v>0.187</v>
       </c>
       <c r="K8">
         <v>0.237</v>
@@ -9366,7 +9366,7 @@
         <v>-2.759</v>
       </c>
       <c r="K9">
-        <v>-3.692</v>
+        <v>-3.777</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -9404,10 +9404,10 @@
         <v>-2.161</v>
       </c>
       <c r="K10">
-        <v>-2.543</v>
+        <v>-2.786</v>
       </c>
       <c r="L10">
-        <v>0.011</v>
+        <v>0.005</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -9442,10 +9442,10 @@
         <v>-1.58</v>
       </c>
       <c r="K11">
-        <v>-1.856</v>
+        <v>-1.802</v>
       </c>
       <c r="L11">
-        <v>0.064</v>
+        <v>0.07199999999999999</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -9480,10 +9480,10 @@
         <v>-0.887</v>
       </c>
       <c r="K12">
-        <v>-1.027</v>
+        <v>-0.956</v>
       </c>
       <c r="L12">
-        <v>0.305</v>
+        <v>0.339</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -9518,10 +9518,10 @@
         <v>-1.008</v>
       </c>
       <c r="K13">
-        <v>-1.185</v>
+        <v>-1.046</v>
       </c>
       <c r="L13">
-        <v>0.236</v>
+        <v>0.296</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -9556,10 +9556,10 @@
         <v>-0.002</v>
       </c>
       <c r="K14">
-        <v>-0.144</v>
+        <v>-0.146</v>
       </c>
       <c r="L14">
-        <v>0.885</v>
+        <v>0.884</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -9594,10 +9594,10 @@
         <v>0.015</v>
       </c>
       <c r="K15">
-        <v>1.053</v>
+        <v>1.162</v>
       </c>
       <c r="L15">
-        <v>0.292</v>
+        <v>0.245</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -9632,10 +9632,10 @@
         <v>0.008999999999999999</v>
       </c>
       <c r="K16">
-        <v>0.532</v>
+        <v>0.5659999999999999</v>
       </c>
       <c r="L16">
-        <v>0.595</v>
+        <v>0.571</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -9670,10 +9670,10 @@
         <v>0.034</v>
       </c>
       <c r="K17">
-        <v>1.987</v>
+        <v>1.941</v>
       </c>
       <c r="L17">
-        <v>0.047</v>
+        <v>0.052</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -9708,10 +9708,10 @@
         <v>0.027</v>
       </c>
       <c r="K18">
-        <v>1.549</v>
+        <v>1.632</v>
       </c>
       <c r="L18">
-        <v>0.122</v>
+        <v>0.103</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -9746,10 +9746,10 @@
         <v>0.002</v>
       </c>
       <c r="K19">
-        <v>0.127</v>
+        <v>0.153</v>
       </c>
       <c r="L19">
-        <v>0.899</v>
+        <v>0.878</v>
       </c>
     </row>
   </sheetData>
@@ -9835,10 +9835,10 @@
         <v>0.199</v>
       </c>
       <c r="I2">
-        <v>0.115</v>
+        <v>0.098</v>
       </c>
       <c r="J2">
-        <v>0.909</v>
+        <v>0.922</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -9867,10 +9867,10 @@
         <v>4.096</v>
       </c>
       <c r="I3">
-        <v>2.351</v>
+        <v>2.177</v>
       </c>
       <c r="J3">
-        <v>0.019</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -9899,10 +9899,10 @@
         <v>4.073</v>
       </c>
       <c r="I4">
-        <v>1.912</v>
+        <v>1.939</v>
       </c>
       <c r="J4">
-        <v>0.056</v>
+        <v>0.052</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -9931,10 +9931,10 @@
         <v>2.898</v>
       </c>
       <c r="I5">
-        <v>1.353</v>
+        <v>1.332</v>
       </c>
       <c r="J5">
-        <v>0.176</v>
+        <v>0.183</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -9963,10 +9963,10 @@
         <v>4.274</v>
       </c>
       <c r="I6">
-        <v>1.977</v>
+        <v>2.021</v>
       </c>
       <c r="J6">
-        <v>0.048</v>
+        <v>0.043</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -9995,10 +9995,10 @@
         <v>4.384</v>
       </c>
       <c r="I7">
-        <v>2.037</v>
+        <v>2.057</v>
       </c>
       <c r="J7">
-        <v>0.042</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -10027,10 +10027,10 @@
         <v>-0.133</v>
       </c>
       <c r="I8">
-        <v>-0.195</v>
+        <v>-0.184</v>
       </c>
       <c r="J8">
-        <v>0.845</v>
+        <v>0.854</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -10059,10 +10059,10 @@
         <v>-1.55</v>
       </c>
       <c r="I9">
-        <v>-2.182</v>
+        <v>-2.175</v>
       </c>
       <c r="J9">
-        <v>0.029</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -10091,10 +10091,10 @@
         <v>-1.699</v>
       </c>
       <c r="I10">
-        <v>-2.109</v>
+        <v>-2.149</v>
       </c>
       <c r="J10">
-        <v>0.035</v>
+        <v>0.032</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -10123,10 +10123,10 @@
         <v>-1.284</v>
       </c>
       <c r="I11">
-        <v>-1.592</v>
+        <v>-1.548</v>
       </c>
       <c r="J11">
-        <v>0.112</v>
+        <v>0.122</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -10155,10 +10155,10 @@
         <v>-1.311</v>
       </c>
       <c r="I12">
-        <v>-1.604</v>
+        <v>-1.588</v>
       </c>
       <c r="J12">
-        <v>0.109</v>
+        <v>0.112</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -10187,7 +10187,7 @@
         <v>-1.557</v>
       </c>
       <c r="I13">
-        <v>-1.935</v>
+        <v>-1.933</v>
       </c>
       <c r="J13">
         <v>0.053</v>
@@ -10219,10 +10219,10 @@
         <v>-0.015</v>
       </c>
       <c r="I14">
-        <v>-1.131</v>
+        <v>-1.033</v>
       </c>
       <c r="J14">
-        <v>0.258</v>
+        <v>0.302</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -10251,10 +10251,10 @@
         <v>0.016</v>
       </c>
       <c r="I15">
-        <v>1.154</v>
+        <v>1.079</v>
       </c>
       <c r="J15">
-        <v>0.249</v>
+        <v>0.281</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -10283,10 +10283,10 @@
         <v>0.017</v>
       </c>
       <c r="I16">
-        <v>1.092</v>
+        <v>1.086</v>
       </c>
       <c r="J16">
-        <v>0.275</v>
+        <v>0.277</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -10315,10 +10315,10 @@
         <v>0.02</v>
       </c>
       <c r="I17">
-        <v>1.254</v>
+        <v>1.231</v>
       </c>
       <c r="J17">
-        <v>0.21</v>
+        <v>0.218</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -10347,10 +10347,10 @@
         <v>0.021</v>
       </c>
       <c r="I18">
-        <v>1.258</v>
+        <v>1.298</v>
       </c>
       <c r="J18">
-        <v>0.209</v>
+        <v>0.194</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -10379,10 +10379,10 @@
         <v>0.008</v>
       </c>
       <c r="I19">
-        <v>0.443</v>
+        <v>0.371</v>
       </c>
       <c r="J19">
-        <v>0.658</v>
+        <v>0.711</v>
       </c>
     </row>
   </sheetData>
@@ -10468,10 +10468,10 @@
         <v>2.132</v>
       </c>
       <c r="I2">
-        <v>1.072</v>
+        <v>0.888</v>
       </c>
       <c r="J2">
-        <v>0.284</v>
+        <v>0.375</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -10500,10 +10500,10 @@
         <v>5.577</v>
       </c>
       <c r="I3">
-        <v>2.793</v>
+        <v>2.551</v>
       </c>
       <c r="J3">
-        <v>0.005</v>
+        <v>0.011</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -10532,10 +10532,10 @@
         <v>6.548</v>
       </c>
       <c r="I4">
-        <v>2.683</v>
+        <v>2.665</v>
       </c>
       <c r="J4">
-        <v>0.007</v>
+        <v>0.008</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -10564,10 +10564,10 @@
         <v>3.964</v>
       </c>
       <c r="I5">
-        <v>1.614</v>
+        <v>1.669</v>
       </c>
       <c r="J5">
-        <v>0.107</v>
+        <v>0.095</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -10596,10 +10596,10 @@
         <v>3.405</v>
       </c>
       <c r="I6">
-        <v>1.372</v>
+        <v>1.462</v>
       </c>
       <c r="J6">
-        <v>0.17</v>
+        <v>0.144</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -10628,10 +10628,10 @@
         <v>4.296</v>
       </c>
       <c r="I7">
-        <v>1.739</v>
+        <v>1.573</v>
       </c>
       <c r="J7">
-        <v>0.082</v>
+        <v>0.116</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -10657,13 +10657,13 @@
         <v>0.02</v>
       </c>
       <c r="H8">
-        <v>-0.539</v>
+        <v>-0.538</v>
       </c>
       <c r="I8">
-        <v>-0.6879999999999999</v>
+        <v>-0.645</v>
       </c>
       <c r="J8">
-        <v>0.491</v>
+        <v>0.519</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -10692,10 +10692,10 @@
         <v>-2.306</v>
       </c>
       <c r="I9">
-        <v>-2.833</v>
+        <v>-2.618</v>
       </c>
       <c r="J9">
-        <v>0.005</v>
+        <v>0.008999999999999999</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -10756,10 +10756,10 @@
         <v>-1.447</v>
       </c>
       <c r="I11">
-        <v>-1.564</v>
+        <v>-1.621</v>
       </c>
       <c r="J11">
-        <v>0.118</v>
+        <v>0.105</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -10788,10 +10788,10 @@
         <v>-1.249</v>
       </c>
       <c r="I12">
-        <v>-1.331</v>
+        <v>-1.357</v>
       </c>
       <c r="J12">
-        <v>0.183</v>
+        <v>0.175</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -10820,10 +10820,10 @@
         <v>-1.604</v>
       </c>
       <c r="I13">
-        <v>-1.737</v>
+        <v>-1.561</v>
       </c>
       <c r="J13">
-        <v>0.083</v>
+        <v>0.119</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -10852,10 +10852,10 @@
         <v>-0.011</v>
       </c>
       <c r="I14">
-        <v>-0.699</v>
+        <v>-0.694</v>
       </c>
       <c r="J14">
-        <v>0.484</v>
+        <v>0.488</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -10884,10 +10884,10 @@
         <v>0.019</v>
       </c>
       <c r="I15">
-        <v>1.166</v>
+        <v>1.227</v>
       </c>
       <c r="J15">
-        <v>0.244</v>
+        <v>0.22</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -10916,10 +10916,10 @@
         <v>0.021</v>
       </c>
       <c r="I16">
-        <v>1.185</v>
+        <v>1.25</v>
       </c>
       <c r="J16">
-        <v>0.236</v>
+        <v>0.211</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -10948,10 +10948,10 @@
         <v>0.022</v>
       </c>
       <c r="I17">
-        <v>1.196</v>
+        <v>1.132</v>
       </c>
       <c r="J17">
-        <v>0.232</v>
+        <v>0.258</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -10980,10 +10980,10 @@
         <v>0.008</v>
       </c>
       <c r="I18">
-        <v>0.435</v>
+        <v>0.46</v>
       </c>
       <c r="J18">
-        <v>0.663</v>
+        <v>0.646</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -11012,10 +11012,10 @@
         <v>0.01</v>
       </c>
       <c r="I19">
-        <v>0.502</v>
+        <v>0.457</v>
       </c>
       <c r="J19">
-        <v>0.615</v>
+        <v>0.648</v>
       </c>
     </row>
   </sheetData>
@@ -11101,10 +11101,10 @@
         <v>3.667</v>
       </c>
       <c r="I2">
-        <v>1.622</v>
+        <v>1.423</v>
       </c>
       <c r="J2">
-        <v>0.105</v>
+        <v>0.155</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -11133,10 +11133,10 @@
         <v>5.81</v>
       </c>
       <c r="I3">
-        <v>2.556</v>
+        <v>2.378</v>
       </c>
       <c r="J3">
-        <v>0.011</v>
+        <v>0.017</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -11165,7 +11165,7 @@
         <v>9.276</v>
       </c>
       <c r="I4">
-        <v>3.345</v>
+        <v>3.209</v>
       </c>
       <c r="J4">
         <v>0.001</v>
@@ -11197,10 +11197,10 @@
         <v>5.184</v>
       </c>
       <c r="I5">
-        <v>1.856</v>
+        <v>1.728</v>
       </c>
       <c r="J5">
-        <v>0.064</v>
+        <v>0.08400000000000001</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -11229,10 +11229,10 @@
         <v>5.139</v>
       </c>
       <c r="I6">
-        <v>1.82</v>
+        <v>1.831</v>
       </c>
       <c r="J6">
-        <v>0.06900000000000001</v>
+        <v>0.067</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -11261,10 +11261,10 @@
         <v>5.26</v>
       </c>
       <c r="I7">
-        <v>1.872</v>
+        <v>1.637</v>
       </c>
       <c r="J7">
-        <v>0.061</v>
+        <v>0.102</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -11290,13 +11290,13 @@
         <v>0.015</v>
       </c>
       <c r="H8">
-        <v>-1.051</v>
+        <v>-1.049</v>
       </c>
       <c r="I8">
-        <v>-1.178</v>
+        <v>-1.147</v>
       </c>
       <c r="J8">
-        <v>0.239</v>
+        <v>0.251</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -11325,10 +11325,10 @@
         <v>-2.393</v>
       </c>
       <c r="I9">
-        <v>-2.582</v>
+        <v>-2.406</v>
       </c>
       <c r="J9">
-        <v>0.01</v>
+        <v>0.016</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -11357,10 +11357,10 @@
         <v>-3.672</v>
       </c>
       <c r="I10">
-        <v>-3.501</v>
+        <v>-3.272</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -11389,10 +11389,10 @@
         <v>-1.973</v>
       </c>
       <c r="I11">
-        <v>-1.875</v>
+        <v>-1.72</v>
       </c>
       <c r="J11">
-        <v>0.061</v>
+        <v>0.08500000000000001</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -11421,10 +11421,10 @@
         <v>-1.928</v>
       </c>
       <c r="I12">
-        <v>-1.807</v>
+        <v>-1.792</v>
       </c>
       <c r="J12">
-        <v>0.07099999999999999</v>
+        <v>0.073</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -11453,10 +11453,10 @@
         <v>-1.884</v>
       </c>
       <c r="I13">
-        <v>-1.792</v>
+        <v>-1.507</v>
       </c>
       <c r="J13">
-        <v>0.073</v>
+        <v>0.132</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -11485,10 +11485,10 @@
         <v>-0.031</v>
       </c>
       <c r="I14">
-        <v>-1.801</v>
+        <v>-1.742</v>
       </c>
       <c r="J14">
-        <v>0.07199999999999999</v>
+        <v>0.082</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -11517,10 +11517,10 @@
         <v>0.021</v>
       </c>
       <c r="I15">
-        <v>1.16</v>
+        <v>1.131</v>
       </c>
       <c r="J15">
-        <v>0.246</v>
+        <v>0.258</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -11549,10 +11549,10 @@
         <v>0.022</v>
       </c>
       <c r="I16">
-        <v>1.116</v>
+        <v>1.106</v>
       </c>
       <c r="J16">
-        <v>0.265</v>
+        <v>0.269</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -11581,10 +11581,10 @@
         <v>0.02</v>
       </c>
       <c r="I17">
-        <v>0.9429999999999999</v>
+        <v>0.923</v>
       </c>
       <c r="J17">
-        <v>0.346</v>
+        <v>0.356</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -11613,10 +11613,10 @@
         <v>0.011</v>
       </c>
       <c r="I18">
-        <v>0.507</v>
+        <v>0.528</v>
       </c>
       <c r="J18">
-        <v>0.612</v>
+        <v>0.597</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -11645,10 +11645,10 @@
         <v>0.001</v>
       </c>
       <c r="I19">
-        <v>0.044</v>
+        <v>0.048</v>
       </c>
       <c r="J19">
-        <v>0.965</v>
+        <v>0.962</v>
       </c>
     </row>
   </sheetData>
@@ -11734,10 +11734,10 @@
         <v>-1.032</v>
       </c>
       <c r="I2">
-        <v>-0.798</v>
+        <v>-0.746</v>
       </c>
       <c r="J2">
-        <v>0.425</v>
+        <v>0.456</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -11766,10 +11766,10 @@
         <v>1.321</v>
       </c>
       <c r="I3">
-        <v>1.015</v>
+        <v>1.048</v>
       </c>
       <c r="J3">
-        <v>0.31</v>
+        <v>0.294</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -11798,10 +11798,10 @@
         <v>2.721</v>
       </c>
       <c r="I4">
-        <v>1.711</v>
+        <v>1.818</v>
       </c>
       <c r="J4">
-        <v>0.08699999999999999</v>
+        <v>0.06900000000000001</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -11830,10 +11830,10 @@
         <v>1.691</v>
       </c>
       <c r="I5">
-        <v>1.058</v>
+        <v>1.024</v>
       </c>
       <c r="J5">
-        <v>0.29</v>
+        <v>0.306</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -11862,10 +11862,10 @@
         <v>1.249</v>
       </c>
       <c r="I6">
-        <v>0.773</v>
+        <v>0.784</v>
       </c>
       <c r="J6">
-        <v>0.44</v>
+        <v>0.433</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -11894,10 +11894,10 @@
         <v>0.4</v>
       </c>
       <c r="I7">
-        <v>0.248</v>
+        <v>0.258</v>
       </c>
       <c r="J7">
-        <v>0.804</v>
+        <v>0.797</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -11923,13 +11923,13 @@
         <v>0.048</v>
       </c>
       <c r="H8">
-        <v>0.401</v>
+        <v>0.406</v>
       </c>
       <c r="I8">
-        <v>0.786</v>
+        <v>0.751</v>
       </c>
       <c r="J8">
-        <v>0.432</v>
+        <v>0.453</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -11958,10 +11958,10 @@
         <v>-0.792</v>
       </c>
       <c r="I9">
-        <v>-1.493</v>
+        <v>-1.653</v>
       </c>
       <c r="J9">
-        <v>0.136</v>
+        <v>0.098</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -11990,10 +11990,10 @@
         <v>-1.39</v>
       </c>
       <c r="I10">
-        <v>-2.312</v>
+        <v>-2.427</v>
       </c>
       <c r="J10">
-        <v>0.021</v>
+        <v>0.015</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -12022,10 +12022,10 @@
         <v>-0.896</v>
       </c>
       <c r="I11">
-        <v>-1.489</v>
+        <v>-1.461</v>
       </c>
       <c r="J11">
-        <v>0.137</v>
+        <v>0.144</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -12054,10 +12054,10 @@
         <v>-0.32</v>
       </c>
       <c r="I12">
-        <v>-0.524</v>
+        <v>-0.538</v>
       </c>
       <c r="J12">
-        <v>0.6</v>
+        <v>0.591</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -12086,10 +12086,10 @@
         <v>-0.09</v>
       </c>
       <c r="I13">
-        <v>-0.149</v>
+        <v>-0.156</v>
       </c>
       <c r="J13">
-        <v>0.882</v>
+        <v>0.876</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -12118,10 +12118,10 @@
         <v>-0.012</v>
       </c>
       <c r="I14">
-        <v>-1.231</v>
+        <v>-1.059</v>
       </c>
       <c r="J14">
-        <v>0.218</v>
+        <v>0.289</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -12150,10 +12150,10 @@
         <v>0.006</v>
       </c>
       <c r="I15">
-        <v>0.5610000000000001</v>
+        <v>0.508</v>
       </c>
       <c r="J15">
-        <v>0.575</v>
+        <v>0.611</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -12182,10 +12182,10 @@
         <v>0.011</v>
       </c>
       <c r="I16">
-        <v>0.9320000000000001</v>
+        <v>1.03</v>
       </c>
       <c r="J16">
-        <v>0.351</v>
+        <v>0.303</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -12214,10 +12214,10 @@
         <v>0.016</v>
       </c>
       <c r="I17">
-        <v>1.344</v>
+        <v>1.36</v>
       </c>
       <c r="J17">
-        <v>0.179</v>
+        <v>0.174</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -12246,10 +12246,10 @@
         <v>0.028</v>
       </c>
       <c r="I18">
-        <v>2.245</v>
+        <v>1.997</v>
       </c>
       <c r="J18">
-        <v>0.025</v>
+        <v>0.046</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -12278,10 +12278,10 @@
         <v>0.023</v>
       </c>
       <c r="I19">
-        <v>1.796</v>
+        <v>1.62</v>
       </c>
       <c r="J19">
-        <v>0.073</v>
+        <v>0.105</v>
       </c>
     </row>
   </sheetData>
@@ -12367,10 +12367,10 @@
         <v>-1.258</v>
       </c>
       <c r="I2">
-        <v>-0.805</v>
+        <v>-0.733</v>
       </c>
       <c r="J2">
-        <v>0.421</v>
+        <v>0.463</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -12399,10 +12399,10 @@
         <v>2.147</v>
       </c>
       <c r="I3">
-        <v>1.366</v>
+        <v>1.338</v>
       </c>
       <c r="J3">
-        <v>0.172</v>
+        <v>0.181</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -12431,10 +12431,10 @@
         <v>4.68</v>
       </c>
       <c r="I4">
-        <v>2.44</v>
+        <v>2.561</v>
       </c>
       <c r="J4">
-        <v>0.015</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -12463,10 +12463,10 @@
         <v>2.312</v>
       </c>
       <c r="I5">
-        <v>1.198</v>
+        <v>1.166</v>
       </c>
       <c r="J5">
-        <v>0.231</v>
+        <v>0.244</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -12495,10 +12495,10 @@
         <v>2.308</v>
       </c>
       <c r="I6">
-        <v>1.183</v>
+        <v>1.198</v>
       </c>
       <c r="J6">
-        <v>0.237</v>
+        <v>0.231</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -12527,10 +12527,10 @@
         <v>1.769</v>
       </c>
       <c r="I7">
-        <v>0.911</v>
+        <v>0.924</v>
       </c>
       <c r="J7">
-        <v>0.363</v>
+        <v>0.355</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -12556,13 +12556,13 @@
         <v>0.033</v>
       </c>
       <c r="H8">
-        <v>0.398</v>
+        <v>0.399</v>
       </c>
       <c r="I8">
-        <v>0.646</v>
+        <v>0.637</v>
       </c>
       <c r="J8">
-        <v>0.519</v>
+        <v>0.524</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -12591,10 +12591,10 @@
         <v>-0.961</v>
       </c>
       <c r="I9">
-        <v>-1.499</v>
+        <v>-1.575</v>
       </c>
       <c r="J9">
-        <v>0.134</v>
+        <v>0.115</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -12623,10 +12623,10 @@
         <v>-2.033</v>
       </c>
       <c r="I10">
-        <v>-2.804</v>
+        <v>-2.863</v>
       </c>
       <c r="J10">
-        <v>0.005</v>
+        <v>0.004</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -12655,10 +12655,10 @@
         <v>-1.188</v>
       </c>
       <c r="I11">
-        <v>-1.635</v>
+        <v>-1.623</v>
       </c>
       <c r="J11">
-        <v>0.102</v>
+        <v>0.105</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -12687,10 +12687,10 @@
         <v>-0.8179999999999999</v>
       </c>
       <c r="I12">
-        <v>-1.11</v>
+        <v>-1.134</v>
       </c>
       <c r="J12">
-        <v>0.267</v>
+        <v>0.257</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -12719,10 +12719,10 @@
         <v>-0.678</v>
       </c>
       <c r="I13">
-        <v>-0.9330000000000001</v>
+        <v>-0.976</v>
       </c>
       <c r="J13">
-        <v>0.351</v>
+        <v>0.329</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -12751,10 +12751,10 @@
         <v>-0.011</v>
       </c>
       <c r="I14">
-        <v>-0.957</v>
+        <v>-0.852</v>
       </c>
       <c r="J14">
-        <v>0.339</v>
+        <v>0.394</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -12783,10 +12783,10 @@
         <v>0.007</v>
       </c>
       <c r="I15">
-        <v>0.548</v>
+        <v>0.539</v>
       </c>
       <c r="J15">
-        <v>0.584</v>
+        <v>0.59</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -12815,10 +12815,10 @@
         <v>0.012</v>
       </c>
       <c r="I16">
-        <v>0.84</v>
+        <v>0.9330000000000001</v>
       </c>
       <c r="J16">
-        <v>0.401</v>
+        <v>0.351</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -12847,10 +12847,10 @@
         <v>0.025</v>
       </c>
       <c r="I17">
-        <v>1.741</v>
+        <v>1.745</v>
       </c>
       <c r="J17">
-        <v>0.082</v>
+        <v>0.081</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -12879,10 +12879,10 @@
         <v>0.033</v>
       </c>
       <c r="I18">
-        <v>2.245</v>
+        <v>2.181</v>
       </c>
       <c r="J18">
-        <v>0.025</v>
+        <v>0.029</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -12911,10 +12911,10 @@
         <v>0.026</v>
       </c>
       <c r="I19">
-        <v>1.673</v>
+        <v>1.447</v>
       </c>
       <c r="J19">
-        <v>0.095</v>
+        <v>0.148</v>
       </c>
     </row>
   </sheetData>
@@ -13000,10 +13000,10 @@
         <v>0.134</v>
       </c>
       <c r="I2">
-        <v>0.075</v>
+        <v>0.066</v>
       </c>
       <c r="J2">
-        <v>0.9399999999999999</v>
+        <v>0.948</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -13032,10 +13032,10 @@
         <v>4.586</v>
       </c>
       <c r="I3">
-        <v>2.548</v>
+        <v>2.322</v>
       </c>
       <c r="J3">
-        <v>0.011</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -13064,7 +13064,7 @@
         <v>7.54</v>
       </c>
       <c r="I4">
-        <v>3.435</v>
+        <v>3.377</v>
       </c>
       <c r="J4">
         <v>0.001</v>
@@ -13096,7 +13096,7 @@
         <v>3.212</v>
       </c>
       <c r="I5">
-        <v>1.452</v>
+        <v>1.451</v>
       </c>
       <c r="J5">
         <v>0.147</v>
@@ -13128,10 +13128,10 @@
         <v>1.596</v>
       </c>
       <c r="I6">
-        <v>0.713</v>
+        <v>0.746</v>
       </c>
       <c r="J6">
-        <v>0.476</v>
+        <v>0.456</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -13160,10 +13160,10 @@
         <v>0.6840000000000001</v>
       </c>
       <c r="I7">
-        <v>0.307</v>
+        <v>0.288</v>
       </c>
       <c r="J7">
-        <v>0.759</v>
+        <v>0.774</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -13189,13 +13189,13 @@
         <v>0.025</v>
       </c>
       <c r="H8">
-        <v>0.128</v>
+        <v>0.123</v>
       </c>
       <c r="I8">
-        <v>0.181</v>
+        <v>0.169</v>
       </c>
       <c r="J8">
-        <v>0.857</v>
+        <v>0.866</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -13224,10 +13224,10 @@
         <v>-2.138</v>
       </c>
       <c r="I9">
-        <v>-2.916</v>
+        <v>-2.691</v>
       </c>
       <c r="J9">
-        <v>0.004</v>
+        <v>0.007</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -13256,7 +13256,7 @@
         <v>-3.223</v>
       </c>
       <c r="I10">
-        <v>-3.887</v>
+        <v>-3.875</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -13288,10 +13288,10 @@
         <v>-1.397</v>
       </c>
       <c r="I11">
-        <v>-1.677</v>
+        <v>-1.709</v>
       </c>
       <c r="J11">
-        <v>0.094</v>
+        <v>0.08699999999999999</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -13320,10 +13320,10 @@
         <v>-0.776</v>
       </c>
       <c r="I12">
-        <v>-0.918</v>
+        <v>-0.892</v>
       </c>
       <c r="J12">
-        <v>0.359</v>
+        <v>0.373</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -13352,10 +13352,10 @@
         <v>-0.268</v>
       </c>
       <c r="I13">
-        <v>-0.322</v>
+        <v>-0.309</v>
       </c>
       <c r="J13">
-        <v>0.748</v>
+        <v>0.757</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -13384,10 +13384,10 @@
         <v>-0.008</v>
       </c>
       <c r="I14">
-        <v>-0.587</v>
+        <v>-0.549</v>
       </c>
       <c r="J14">
-        <v>0.5570000000000001</v>
+        <v>0.583</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -13416,10 +13416,10 @@
         <v>0.006</v>
       </c>
       <c r="I15">
-        <v>0.395</v>
+        <v>0.419</v>
       </c>
       <c r="J15">
-        <v>0.6929999999999999</v>
+        <v>0.675</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -13448,10 +13448,10 @@
         <v>0.013</v>
       </c>
       <c r="I16">
-        <v>0.8169999999999999</v>
+        <v>0.93</v>
       </c>
       <c r="J16">
-        <v>0.414</v>
+        <v>0.353</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -13480,10 +13480,10 @@
         <v>0.027</v>
       </c>
       <c r="I17">
-        <v>1.597</v>
+        <v>1.647</v>
       </c>
       <c r="J17">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -13512,10 +13512,10 @@
         <v>0.026</v>
       </c>
       <c r="I18">
-        <v>1.531</v>
+        <v>1.54</v>
       </c>
       <c r="J18">
-        <v>0.126</v>
+        <v>0.123</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -13544,10 +13544,10 @@
         <v>0.023</v>
       </c>
       <c r="I19">
-        <v>1.291</v>
+        <v>1.341</v>
       </c>
       <c r="J19">
-        <v>0.197</v>
+        <v>0.18</v>
       </c>
     </row>
   </sheetData>
@@ -13640,10 +13640,10 @@
         <v>0.769</v>
       </c>
       <c r="J2">
-        <v>0.378</v>
+        <v>0.338</v>
       </c>
       <c r="K2">
-        <v>0.705</v>
+        <v>0.735</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -13675,10 +13675,10 @@
         <v>5.441</v>
       </c>
       <c r="J3">
-        <v>2.662</v>
+        <v>2.491</v>
       </c>
       <c r="K3">
-        <v>0.008</v>
+        <v>0.013</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -13710,7 +13710,7 @@
         <v>9.792999999999999</v>
       </c>
       <c r="J4">
-        <v>3.934</v>
+        <v>4.108</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -13745,10 +13745,10 @@
         <v>3.984</v>
       </c>
       <c r="J5">
-        <v>1.586</v>
+        <v>1.568</v>
       </c>
       <c r="K5">
-        <v>0.113</v>
+        <v>0.117</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -13780,10 +13780,10 @@
         <v>3.071</v>
       </c>
       <c r="J6">
-        <v>1.209</v>
+        <v>1.29</v>
       </c>
       <c r="K6">
-        <v>0.227</v>
+        <v>0.197</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -13815,10 +13815,10 @@
         <v>1.758</v>
       </c>
       <c r="J7">
-        <v>0.695</v>
+        <v>0.621</v>
       </c>
       <c r="K7">
-        <v>0.487</v>
+        <v>0.534</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -13847,13 +13847,13 @@
         <v>0.019</v>
       </c>
       <c r="I8">
-        <v>-0.062</v>
+        <v>-0.056</v>
       </c>
       <c r="J8">
-        <v>-0.077</v>
+        <v>-0.067</v>
       </c>
       <c r="K8">
-        <v>0.9389999999999999</v>
+        <v>0.947</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -13885,10 +13885,10 @@
         <v>-2.622</v>
       </c>
       <c r="J9">
-        <v>-3.151</v>
+        <v>-2.928</v>
       </c>
       <c r="K9">
-        <v>0.002</v>
+        <v>0.003</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -13920,7 +13920,7 @@
         <v>-4.115</v>
       </c>
       <c r="J10">
-        <v>-4.376</v>
+        <v>-4.4</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -13955,7 +13955,7 @@
         <v>-1.717</v>
       </c>
       <c r="J11">
-        <v>-1.814</v>
+        <v>-1.815</v>
       </c>
       <c r="K11">
         <v>0.07000000000000001</v>
@@ -13990,10 +13990,10 @@
         <v>-1.368</v>
       </c>
       <c r="J12">
-        <v>-1.425</v>
+        <v>-1.421</v>
       </c>
       <c r="K12">
-        <v>0.154</v>
+        <v>0.155</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -14025,10 +14025,10 @@
         <v>-0.715</v>
       </c>
       <c r="J13">
-        <v>-0.756</v>
+        <v>-0.6820000000000001</v>
       </c>
       <c r="K13">
-        <v>0.45</v>
+        <v>0.495</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -14060,10 +14060,10 @@
         <v>-0.017</v>
       </c>
       <c r="J14">
-        <v>-1.095</v>
+        <v>-1.021</v>
       </c>
       <c r="K14">
-        <v>0.274</v>
+        <v>0.307</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -14095,10 +14095,10 @@
         <v>0.011</v>
       </c>
       <c r="J15">
-        <v>0.6860000000000001</v>
+        <v>0.6919999999999999</v>
       </c>
       <c r="K15">
-        <v>0.493</v>
+        <v>0.489</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -14130,10 +14130,10 @@
         <v>0.014</v>
       </c>
       <c r="J16">
-        <v>0.768</v>
+        <v>0.849</v>
       </c>
       <c r="K16">
-        <v>0.443</v>
+        <v>0.396</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -14165,10 +14165,10 @@
         <v>0.022</v>
       </c>
       <c r="J17">
-        <v>1.158</v>
+        <v>1.19</v>
       </c>
       <c r="K17">
-        <v>0.247</v>
+        <v>0.234</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -14200,10 +14200,10 @@
         <v>0.027</v>
       </c>
       <c r="J18">
-        <v>1.411</v>
+        <v>1.489</v>
       </c>
       <c r="K18">
-        <v>0.159</v>
+        <v>0.137</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -14235,10 +14235,10 @@
         <v>0.01</v>
       </c>
       <c r="J19">
-        <v>0.515</v>
+        <v>0.642</v>
       </c>
       <c r="K19">
-        <v>0.607</v>
+        <v>0.521</v>
       </c>
     </row>
   </sheetData>
@@ -14324,10 +14324,10 @@
         <v>-1.212</v>
       </c>
       <c r="I2">
-        <v>-1.005</v>
+        <v>-0.9429999999999999</v>
       </c>
       <c r="J2">
-        <v>0.315</v>
+        <v>0.346</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -14356,10 +14356,10 @@
         <v>0.628</v>
       </c>
       <c r="I3">
-        <v>0.517</v>
+        <v>0.537</v>
       </c>
       <c r="J3">
-        <v>0.605</v>
+        <v>0.591</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -14388,10 +14388,10 @@
         <v>0.458</v>
       </c>
       <c r="I4">
-        <v>0.308</v>
+        <v>0.325</v>
       </c>
       <c r="J4">
-        <v>0.758</v>
+        <v>0.745</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -14420,10 +14420,10 @@
         <v>0.496</v>
       </c>
       <c r="I5">
-        <v>0.333</v>
+        <v>0.321</v>
       </c>
       <c r="J5">
-        <v>0.74</v>
+        <v>0.748</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -14452,10 +14452,10 @@
         <v>1.096</v>
       </c>
       <c r="I6">
-        <v>0.727</v>
+        <v>0.729</v>
       </c>
       <c r="J6">
-        <v>0.467</v>
+        <v>0.466</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -14484,10 +14484,10 @@
         <v>0.732</v>
       </c>
       <c r="I7">
-        <v>0.488</v>
+        <v>0.434</v>
       </c>
       <c r="J7">
-        <v>0.626</v>
+        <v>0.664</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -14513,13 +14513,13 @@
         <v>0.055</v>
       </c>
       <c r="H8">
-        <v>0.536</v>
+        <v>0.543</v>
       </c>
       <c r="I8">
-        <v>1.127</v>
+        <v>1.028</v>
       </c>
       <c r="J8">
-        <v>0.26</v>
+        <v>0.304</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -14548,10 +14548,10 @@
         <v>-0.498</v>
       </c>
       <c r="I9">
-        <v>-1.005</v>
+        <v>-1.059</v>
       </c>
       <c r="J9">
-        <v>0.315</v>
+        <v>0.289</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -14580,10 +14580,10 @@
         <v>-0.4</v>
       </c>
       <c r="I10">
-        <v>-0.713</v>
+        <v>-0.755</v>
       </c>
       <c r="J10">
-        <v>0.476</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -14612,10 +14612,10 @@
         <v>-0.473</v>
       </c>
       <c r="I11">
-        <v>-0.842</v>
+        <v>-0.846</v>
       </c>
       <c r="J11">
-        <v>0.4</v>
+        <v>0.397</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -14644,10 +14644,10 @@
         <v>-0.225</v>
       </c>
       <c r="I12">
-        <v>-0.395</v>
+        <v>-0.391</v>
       </c>
       <c r="J12">
-        <v>0.6929999999999999</v>
+        <v>0.696</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -14676,10 +14676,10 @@
         <v>-0.08500000000000001</v>
       </c>
       <c r="I13">
-        <v>-0.152</v>
+        <v>-0.13</v>
       </c>
       <c r="J13">
-        <v>0.879</v>
+        <v>0.896</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -14708,10 +14708,10 @@
         <v>-0.004</v>
       </c>
       <c r="I14">
-        <v>-0.386</v>
+        <v>-0.405</v>
       </c>
       <c r="J14">
-        <v>0.699</v>
+        <v>0.6860000000000001</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -14740,10 +14740,10 @@
         <v>0.01</v>
       </c>
       <c r="I15">
-        <v>0.985</v>
+        <v>0.894</v>
       </c>
       <c r="J15">
-        <v>0.325</v>
+        <v>0.371</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -14772,7 +14772,7 @@
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0.007</v>
+        <v>0.006</v>
       </c>
       <c r="J16">
         <v>0.995</v>
@@ -14804,10 +14804,10 @@
         <v>0.013</v>
       </c>
       <c r="I17">
-        <v>1.177</v>
+        <v>1.031</v>
       </c>
       <c r="J17">
-        <v>0.24</v>
+        <v>0.303</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -14836,10 +14836,10 @@
         <v>0.026</v>
       </c>
       <c r="I18">
-        <v>2.254</v>
+        <v>2.136</v>
       </c>
       <c r="J18">
-        <v>0.024</v>
+        <v>0.033</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -14868,10 +14868,10 @@
         <v>0.019</v>
       </c>
       <c r="I19">
-        <v>1.605</v>
+        <v>1.457</v>
       </c>
       <c r="J19">
-        <v>0.109</v>
+        <v>0.145</v>
       </c>
     </row>
   </sheetData>
